--- a/data 1.xlsx
+++ b/data 1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bharbhatia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bharbhatia\Desktop\New folder\test-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A0A74A-4525-41FF-A7FC-CCAFEDF08F19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF4AC0D-0906-4C3E-90A5-191D190FEA9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>New Folder</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>hhhh</t>
+  </si>
+  <si>
+    <t>hello bharat</t>
   </si>
 </sst>
 </file>
@@ -360,15 +363,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -378,8 +381,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>

--- a/data 1.xlsx
+++ b/data 1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bharbhatia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bharbhatia\Desktop\user 2\test-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A0A74A-4525-41FF-A7FC-CCAFEDF08F19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FD16FD-A0EA-4BEF-AFF4-69B7FCD5084B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>New Folder</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>hhhh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bharat data for user 2 </t>
   </si>
 </sst>
 </file>
@@ -360,15 +363,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -379,7 +382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -388,6 +391,9 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
